--- a/templates/Student.xlsx
+++ b/templates/Student.xlsx
@@ -416,6 +416,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -475,6 +478,6 @@
   </sheetData>
   <autoFilter ref="A1:K1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="76" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/templates/Student.xlsx
+++ b/templates/Student.xlsx
@@ -422,7 +422,7 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/templates/Student.xlsx
+++ b/templates/Student.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Students" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Students!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Students!$A$1:$L$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>LRN</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Section ID</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -419,10 +422,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,13 +437,14 @@
     <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -463,20 +467,23 @@
         <v>1</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K1"/>
+  <autoFilter ref="A1:L1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="76" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
